--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9998636575556963</v>
+        <v>0.9998639178507085</v>
       </c>
       <c r="E2">
-        <v>0.9998636575556963</v>
+        <v>0.9998639178507085</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999956370964</v>
+        <v>0.9999999958228338</v>
       </c>
       <c r="E3">
-        <v>0.9999999956370964</v>
+        <v>0.9999999958228338</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.3974313976342612</v>
+        <v>0.3962371857946776</v>
       </c>
       <c r="E4">
-        <v>0.3974313976342612</v>
+        <v>0.3962371857946776</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999998578468</v>
+        <v>0.9999999998775795</v>
       </c>
       <c r="E5">
-        <v>0.9999999998578468</v>
+        <v>0.9999999998775795</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9783319852274752</v>
+        <v>0.9784905462750674</v>
       </c>
       <c r="E6">
-        <v>0.9783319852274752</v>
+        <v>0.9784905462750674</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999674604085456</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>3.253959145443908E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999777627340271</v>
+        <v>0.999941112858042</v>
       </c>
       <c r="E8">
-        <v>2.22372659729464E-05</v>
+        <v>5.888714195800837E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999648593987471</v>
+        <v>0.6805352703188723</v>
       </c>
       <c r="E9">
-        <v>3.514060125286989E-05</v>
+        <v>0.3194647296811277</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999750965717392</v>
+        <v>0.9981100231905022</v>
       </c>
       <c r="E10">
-        <v>2.490342826078074E-05</v>
+        <v>0.001889976809497762</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999682956133061</v>
+        <v>0.9993452489908626</v>
       </c>
       <c r="E11">
-        <v>3.170438669386488E-05</v>
+        <v>0.0006547510091373665</v>
       </c>
       <c r="F11">
-        <v>5.51632022857666</v>
+        <v>5.575076103210449</v>
       </c>
       <c r="G11">
         <v>0.6</v>
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9999879656247479</v>
+        <v>0.9999879413270308</v>
       </c>
       <c r="E12">
-        <v>0.9999879656247479</v>
+        <v>0.9999879413270308</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999997576945944</v>
+        <v>0.9999997477762933</v>
       </c>
       <c r="E13">
-        <v>0.9999997576945944</v>
+        <v>0.9999997477762933</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.04127481290926791</v>
+        <v>0.0416629642831565</v>
       </c>
       <c r="E14">
-        <v>0.04127481290926791</v>
+        <v>0.0416629642831565</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.9949313484291914</v>
+        <v>0.9941997522073657</v>
       </c>
       <c r="E15">
-        <v>0.9949313484291914</v>
+        <v>0.9941997522073657</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9994948409646215</v>
+        <v>0.9994903376161151</v>
       </c>
       <c r="E16">
-        <v>0.9994948409646215</v>
+        <v>0.9994903376161151</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9999999913619536</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>8.638046389286558E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999999962299342</v>
+        <v>0.9999999971968725</v>
       </c>
       <c r="E18">
-        <v>3.770065815089652E-09</v>
+        <v>2.803127507888803E-09</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9999999898234052</v>
+        <v>1.01707360045382E-09</v>
       </c>
       <c r="E19">
-        <v>1.017659478907973E-08</v>
+        <v>0.9999999989829264</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9999999951137004</v>
+        <v>0.9999759883274187</v>
       </c>
       <c r="E20">
-        <v>4.886299587170129E-09</v>
+        <v>2.401167258125891E-05</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.999999991625086</v>
+        <v>0.9999983992336746</v>
       </c>
       <c r="E21">
-        <v>8.374913984532384E-09</v>
+        <v>1.60076632538253E-06</v>
       </c>
       <c r="F21">
-        <v>3.947827816009521</v>
+        <v>5.999920845031738</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
